--- a/documents/01 DataBase Design/Table_specification.xlsx
+++ b/documents/01 DataBase Design/Table_specification.xlsx
@@ -299,9 +299,6 @@
     <t>DelivPostalCode</t>
   </si>
   <si>
-    <t>DelivIntruction</t>
-  </si>
-  <si>
     <t>Ecash</t>
   </si>
   <si>
@@ -1528,6 +1525,10 @@
   </si>
   <si>
     <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DelivInstruction</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2789,7 +2790,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -2798,13 +2799,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -2812,28 +2813,28 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="46" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
@@ -2861,7 +2862,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -2889,12 +2890,12 @@
         <v>3</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="31"/>
       <c r="E8" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
@@ -2912,7 +2913,7 @@
       <c r="C9" s="35"/>
       <c r="D9" s="36"/>
       <c r="E9" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
@@ -2930,7 +2931,7 @@
       <c r="C10" s="39"/>
       <c r="D10" s="40"/>
       <c r="E10" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
@@ -2948,7 +2949,7 @@
       <c r="C11" s="39"/>
       <c r="D11" s="40"/>
       <c r="E11" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
@@ -2966,7 +2967,7 @@
       <c r="C12" s="39"/>
       <c r="D12" s="40"/>
       <c r="E12" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
@@ -2984,7 +2985,7 @@
       <c r="C13" s="39"/>
       <c r="D13" s="40"/>
       <c r="E13" s="39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
@@ -3002,7 +3003,7 @@
       <c r="C14" s="39"/>
       <c r="D14" s="40"/>
       <c r="E14" s="39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
@@ -3020,7 +3021,7 @@
       <c r="C15" s="39"/>
       <c r="D15" s="40"/>
       <c r="E15" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
@@ -3038,7 +3039,7 @@
       <c r="C16" s="39"/>
       <c r="D16" s="40"/>
       <c r="E16" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -3051,12 +3052,12 @@
         <v>9</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="40"/>
       <c r="E17" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -3069,12 +3070,12 @@
         <v>10</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="40"/>
       <c r="E18" s="39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
@@ -3092,7 +3093,7 @@
       <c r="C19" s="39"/>
       <c r="D19" s="40"/>
       <c r="E19" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
@@ -3110,7 +3111,7 @@
       <c r="C20" s="39"/>
       <c r="D20" s="40"/>
       <c r="E20" s="39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
@@ -3128,7 +3129,7 @@
       <c r="C21" s="39"/>
       <c r="D21" s="40"/>
       <c r="E21" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
@@ -3146,7 +3147,7 @@
       <c r="C22" s="39"/>
       <c r="D22" s="40"/>
       <c r="E22" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
@@ -3164,7 +3165,7 @@
       <c r="C23" s="39"/>
       <c r="D23" s="40"/>
       <c r="E23" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
@@ -3182,7 +3183,7 @@
       <c r="C24" s="39"/>
       <c r="D24" s="40"/>
       <c r="E24" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
@@ -3200,7 +3201,7 @@
       <c r="C25" s="39"/>
       <c r="D25" s="40"/>
       <c r="E25" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
@@ -3218,7 +3219,7 @@
       <c r="C26" s="39"/>
       <c r="D26" s="40"/>
       <c r="E26" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
@@ -3236,7 +3237,7 @@
       <c r="C27" s="39"/>
       <c r="D27" s="40"/>
       <c r="E27" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -3254,7 +3255,7 @@
       <c r="C28" s="39"/>
       <c r="D28" s="40"/>
       <c r="E28" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
@@ -3272,7 +3273,7 @@
       <c r="C29" s="39"/>
       <c r="D29" s="40"/>
       <c r="E29" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
@@ -3285,12 +3286,12 @@
         <v>22</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C30" s="67"/>
       <c r="D30" s="68"/>
       <c r="E30" s="67" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F30" s="67"/>
       <c r="G30" s="67"/>
@@ -3303,12 +3304,12 @@
         <v>23</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C31" s="39"/>
       <c r="D31" s="40"/>
       <c r="E31" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
@@ -3321,12 +3322,12 @@
         <v>24</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C32" s="39"/>
       <c r="D32" s="40"/>
       <c r="E32" s="39" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
@@ -3339,12 +3340,12 @@
         <v>25</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="44"/>
       <c r="E33" s="43" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
@@ -3379,22 +3380,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -3402,7 +3403,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -3411,23 +3412,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -3438,10 +3439,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -3457,7 +3458,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -3481,7 +3482,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -3497,20 +3498,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -3521,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="53" t="s">
@@ -3531,7 +3532,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="35"/>
@@ -3553,7 +3554,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="39"/>
@@ -3565,7 +3566,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="56" t="s">
@@ -3585,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="56" t="s">
@@ -3596,7 +3597,7 @@
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="58" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="41"/>
@@ -3607,7 +3608,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="56" t="s">
@@ -3627,7 +3628,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="56" t="s">
@@ -3647,7 +3648,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="56" t="s">
@@ -3667,7 +3668,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="56" t="s">
@@ -3687,7 +3688,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="56" t="s">
@@ -3698,7 +3699,7 @@
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="41"/>
@@ -3709,7 +3710,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="56" t="s">
@@ -3729,18 +3730,18 @@
         <v>11</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E20" s="56">
         <v>7</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="41"/>
@@ -3751,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="56" t="s">
@@ -3762,7 +3763,7 @@
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="41"/>
@@ -3773,7 +3774,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="56" t="s">
@@ -3784,7 +3785,7 @@
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="41"/>
@@ -3795,7 +3796,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="56" t="s">
@@ -3806,7 +3807,7 @@
       </c>
       <c r="F23" s="57"/>
       <c r="G23" s="58" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="41"/>
@@ -3817,7 +3818,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="44"/>
       <c r="D24" s="59" t="s">
@@ -3833,7 +3834,7 @@
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A26" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
@@ -3846,15 +3847,15 @@
     </row>
     <row r="27" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A27" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
       <c r="D27" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" s="63" t="s">
         <v>217</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>218</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
@@ -3900,7 +3901,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -3909,13 +3910,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41231</v>
@@ -3923,7 +3924,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -3932,23 +3933,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -3959,10 +3960,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -3978,7 +3979,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -4002,7 +4003,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -4018,20 +4019,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -4042,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="53" t="s">
@@ -4052,10 +4053,10 @@
         <v>10</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="37"/>
@@ -4066,7 +4067,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="56" t="s">
@@ -4086,7 +4087,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="56" t="s">
@@ -4097,7 +4098,7 @@
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="58" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="41"/>
@@ -4108,11 +4109,11 @@
         <v>4</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="56">
         <v>6</v>
@@ -4128,11 +4129,11 @@
         <v>5</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="56">
         <v>6</v>
@@ -4148,11 +4149,11 @@
         <v>6</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="56">
         <v>6</v>
@@ -4168,7 +4169,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="56" t="s">
@@ -4179,7 +4180,7 @@
       </c>
       <c r="F16" s="57"/>
       <c r="G16" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="41"/>
@@ -4190,7 +4191,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="56" t="s">
@@ -4210,7 +4211,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="56" t="s">
@@ -4230,7 +4231,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="56" t="s">
@@ -4250,7 +4251,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="56" t="s">
@@ -4270,7 +4271,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="56" t="s">
@@ -4290,7 +4291,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="56" t="s">
@@ -4310,7 +4311,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="56" t="s">
@@ -4330,18 +4331,18 @@
         <v>15</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E24" s="56">
         <v>12</v>
       </c>
       <c r="F24" s="57"/>
       <c r="G24" s="58" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="41"/>
@@ -4352,7 +4353,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="56" t="s">
@@ -4363,7 +4364,7 @@
       </c>
       <c r="F25" s="57"/>
       <c r="G25" s="58" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="41"/>
@@ -4374,7 +4375,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="56" t="s">
@@ -4385,7 +4386,7 @@
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="58" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="41"/>
@@ -4396,7 +4397,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="56" t="s">
@@ -4407,7 +4408,7 @@
       </c>
       <c r="F27" s="57"/>
       <c r="G27" s="58" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="41"/>
@@ -4418,7 +4419,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="56" t="s">
@@ -4429,7 +4430,7 @@
       </c>
       <c r="F28" s="57"/>
       <c r="G28" s="58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="41"/>
@@ -4440,7 +4441,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="56" t="s">
@@ -4451,7 +4452,7 @@
       </c>
       <c r="F29" s="57"/>
       <c r="G29" s="58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="41"/>
@@ -4462,7 +4463,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="56" t="s">
@@ -4473,7 +4474,7 @@
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="41"/>
@@ -4495,7 +4496,7 @@
       </c>
       <c r="F31" s="57"/>
       <c r="G31" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="41"/>
@@ -4522,7 +4523,7 @@
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A34" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
@@ -4535,15 +4536,15 @@
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A35" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="31"/>
       <c r="D35" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="63" t="s">
         <v>213</v>
-      </c>
-      <c r="E35" s="63" t="s">
-        <v>214</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
@@ -4552,15 +4553,15 @@
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A36" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="26"/>
       <c r="D36" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="E36" s="65" t="s">
         <v>360</v>
-      </c>
-      <c r="E36" s="65" t="s">
-        <v>361</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
@@ -4595,7 +4596,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -4604,13 +4605,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41238</v>
@@ -4618,7 +4619,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -4627,23 +4628,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -4654,10 +4655,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -4673,7 +4674,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -4697,7 +4698,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -4713,20 +4714,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>230</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>231</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -4737,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="53" t="s">
@@ -4747,10 +4748,10 @@
         <v>13</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="37"/>
@@ -4760,7 +4761,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="56" t="s">
@@ -4771,7 +4772,7 @@
       </c>
       <c r="F11" s="57"/>
       <c r="G11" s="71" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="41"/>
@@ -4782,7 +4783,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="56" t="s">
@@ -4802,7 +4803,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="56" t="s">
@@ -4813,7 +4814,7 @@
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="41"/>
@@ -4824,7 +4825,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="56" t="s">
@@ -4835,7 +4836,7 @@
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="58" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="41"/>
@@ -4857,7 +4858,7 @@
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="41"/>
@@ -4879,7 +4880,7 @@
       </c>
       <c r="F16" s="57"/>
       <c r="G16" s="58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="41"/>
@@ -4901,7 +4902,7 @@
       </c>
       <c r="F17" s="57"/>
       <c r="G17" s="58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="41"/>
@@ -4923,7 +4924,7 @@
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="41"/>
@@ -4933,7 +4934,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="56" t="s">
@@ -4953,7 +4954,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="56" t="s">
@@ -4964,7 +4965,7 @@
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="41"/>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="41"/>
@@ -5017,7 +5018,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="56" t="s">
@@ -5037,7 +5038,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="56" t="s">
@@ -5048,7 +5049,7 @@
       </c>
       <c r="F24" s="57"/>
       <c r="G24" s="58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="41"/>
@@ -5059,7 +5060,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="56" t="s">
@@ -5070,7 +5071,7 @@
       </c>
       <c r="F25" s="57"/>
       <c r="G25" s="58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="41"/>
@@ -5081,7 +5082,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="56" t="s">
@@ -5092,7 +5093,7 @@
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="41"/>
@@ -5103,7 +5104,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="56" t="s">
@@ -5114,7 +5115,7 @@
       </c>
       <c r="F27" s="57"/>
       <c r="G27" s="58" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="41"/>
@@ -5125,7 +5126,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="56" t="s">
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F28" s="57"/>
       <c r="G28" s="58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="41"/>
@@ -5147,7 +5148,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="56" t="s">
@@ -5167,7 +5168,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="56" t="s">
@@ -5187,7 +5188,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="56" t="s">
@@ -5207,7 +5208,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="56" t="s">
@@ -5227,7 +5228,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="56" t="s">
@@ -5247,7 +5248,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="56" t="s">
@@ -5267,7 +5268,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="56" t="s">
@@ -5287,7 +5288,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="56" t="s">
@@ -5307,7 +5308,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" s="40"/>
       <c r="D37" s="56" t="s">
@@ -5338,7 +5339,7 @@
       </c>
       <c r="F38" s="57"/>
       <c r="G38" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="41"/>
@@ -5365,7 +5366,7 @@
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A41" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
@@ -5378,15 +5379,15 @@
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A42" s="62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="31"/>
       <c r="D42" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" s="63" t="s">
         <v>234</v>
-      </c>
-      <c r="E42" s="63" t="s">
-        <v>235</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
@@ -5432,7 +5433,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -5441,13 +5442,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -5455,7 +5456,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -5464,23 +5465,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -5491,10 +5492,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -5510,7 +5511,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -5534,7 +5535,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -5550,20 +5551,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -5574,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="53" t="s">
@@ -5584,7 +5585,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="35"/>
@@ -5596,7 +5597,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="56" t="s">
@@ -5606,7 +5607,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="39"/>
@@ -5628,7 +5629,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="39"/>
@@ -5640,7 +5641,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="56" t="s">
@@ -5650,7 +5651,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G13" s="58"/>
       <c r="H13" s="39"/>
@@ -5662,7 +5663,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="56" t="s">
@@ -5682,7 +5683,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="56" t="s">
@@ -5702,18 +5703,18 @@
         <v>7</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E16" s="56">
         <v>6</v>
       </c>
       <c r="F16" s="57"/>
       <c r="G16" s="58" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="41"/>
@@ -5724,7 +5725,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="56" t="s">
@@ -5735,7 +5736,7 @@
       </c>
       <c r="F17" s="57"/>
       <c r="G17" s="58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="41"/>
@@ -5746,7 +5747,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="56" t="s">
@@ -5757,7 +5758,7 @@
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="41"/>
@@ -5768,7 +5769,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="56" t="s">
@@ -5779,7 +5780,7 @@
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="41"/>
@@ -5790,7 +5791,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="56" t="s">
@@ -5801,7 +5802,7 @@
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="58" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="41"/>
@@ -5812,7 +5813,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="56" t="s">
@@ -5823,7 +5824,7 @@
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="41"/>
@@ -5834,7 +5835,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="56" t="s">
@@ -5845,7 +5846,7 @@
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="58" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="41"/>
@@ -5856,7 +5857,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="59" t="s">
@@ -5872,7 +5873,7 @@
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A25" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
@@ -5885,15 +5886,15 @@
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A26" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="31"/>
       <c r="D26" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="63" t="s">
         <v>217</v>
-      </c>
-      <c r="E26" s="63" t="s">
-        <v>218</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
@@ -5939,7 +5940,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -5948,13 +5949,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -5962,7 +5963,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -5971,23 +5972,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -5998,10 +5999,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -6017,7 +6018,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -6041,7 +6042,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -6057,20 +6058,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -6081,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="53" t="s">
@@ -6091,7 +6092,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="35"/>
@@ -6103,7 +6104,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="56" t="s">
@@ -6113,7 +6114,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="39"/>
@@ -6135,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="39"/>
@@ -6147,7 +6148,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="56" t="s">
@@ -6157,7 +6158,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G13" s="58"/>
       <c r="H13" s="39"/>
@@ -6169,7 +6170,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="56" t="s">
@@ -6189,7 +6190,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="56" t="s">
@@ -6199,7 +6200,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G15" s="58"/>
       <c r="H15" s="39"/>
@@ -6211,7 +6212,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="56" t="s">
@@ -6231,7 +6232,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="59" t="s">
@@ -6242,14 +6243,14 @@
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H17" s="43"/>
       <c r="I17" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A19" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
@@ -6262,15 +6263,15 @@
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A20" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
       <c r="D20" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="63" t="s">
         <v>217</v>
-      </c>
-      <c r="E20" s="63" t="s">
-        <v>218</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
@@ -6316,7 +6317,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -6325,13 +6326,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41241</v>
@@ -6339,7 +6340,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -6348,23 +6349,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -6375,10 +6376,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -6394,7 +6395,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -6418,7 +6419,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -6434,20 +6435,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>193</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>194</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -6458,7 +6459,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="53" t="s">
@@ -6468,7 +6469,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="35"/>
@@ -6480,7 +6481,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="56" t="s">
@@ -6490,7 +6491,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="39"/>
@@ -6502,7 +6503,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="56" t="s">
@@ -6522,7 +6523,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="56" t="s">
@@ -6553,7 +6554,7 @@
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="41"/>
@@ -6564,7 +6565,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="56" t="s">
@@ -6575,7 +6576,7 @@
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="58" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="41"/>
@@ -6586,7 +6587,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="56" t="s">
@@ -6597,7 +6598,7 @@
       </c>
       <c r="F16" s="57"/>
       <c r="G16" s="58" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="41"/>
@@ -6608,7 +6609,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="56" t="s">
@@ -6619,7 +6620,7 @@
       </c>
       <c r="F17" s="57"/>
       <c r="G17" s="58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="41"/>
@@ -6630,7 +6631,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="56" t="s">
@@ -6641,7 +6642,7 @@
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="58" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="41"/>
@@ -6652,7 +6653,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="56" t="s">
@@ -6663,7 +6664,7 @@
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="41"/>
@@ -6674,7 +6675,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="56" t="s">
@@ -6685,7 +6686,7 @@
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="58" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="41"/>
@@ -6696,7 +6697,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="56" t="s">
@@ -6707,7 +6708,7 @@
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="58" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="41"/>
@@ -6718,7 +6719,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="56" t="s">
@@ -6729,7 +6730,7 @@
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="41"/>
@@ -6740,7 +6741,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="56" t="s">
@@ -6751,7 +6752,7 @@
       </c>
       <c r="F23" s="57"/>
       <c r="G23" s="58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="41"/>
@@ -6782,7 +6783,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="56" t="s">
@@ -6802,7 +6803,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="56" t="s">
@@ -6822,7 +6823,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="56" t="s">
@@ -6842,7 +6843,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="56" t="s">
@@ -6862,7 +6863,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="56" t="s">
@@ -6882,7 +6883,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="56" t="s">
@@ -6902,7 +6903,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="56" t="s">
@@ -6922,7 +6923,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="56" t="s">
@@ -6942,7 +6943,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="56" t="s">
@@ -6962,7 +6963,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="56" t="s">
@@ -6982,7 +6983,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="56" t="s">
@@ -7002,7 +7003,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="56" t="s">
@@ -7022,7 +7023,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C37" s="40"/>
       <c r="D37" s="56" t="s">
@@ -7042,7 +7043,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="56" t="s">
@@ -7073,7 +7074,7 @@
       </c>
       <c r="F39" s="57"/>
       <c r="G39" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="41"/>
@@ -7100,7 +7101,7 @@
     </row>
     <row r="42" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A42" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
@@ -7113,15 +7114,15 @@
     </row>
     <row r="43" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A43" s="62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="31"/>
       <c r="D43" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="63" t="s">
         <v>198</v>
-      </c>
-      <c r="E43" s="63" t="s">
-        <v>199</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="30"/>
@@ -7167,7 +7168,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -7176,13 +7177,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -7190,7 +7191,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -7199,23 +7200,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -7226,10 +7227,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -7245,7 +7246,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -7269,7 +7270,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -7285,20 +7286,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -7309,7 +7310,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="53" t="s">
@@ -7319,7 +7320,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="35"/>
@@ -7331,7 +7332,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="56" t="s">
@@ -7341,7 +7342,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="39"/>
@@ -7389,7 +7390,7 @@
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A15" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
@@ -7402,15 +7403,15 @@
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A16" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
       <c r="D16" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="63" t="s">
         <v>213</v>
-      </c>
-      <c r="E16" s="63" t="s">
-        <v>214</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
@@ -7456,22 +7457,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -7479,7 +7480,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -7488,23 +7489,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -7515,10 +7516,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -7534,7 +7535,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -7558,7 +7559,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -7574,20 +7575,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>193</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>194</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -7598,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="53" t="s">
@@ -7608,7 +7609,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="35"/>
@@ -7620,7 +7621,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="56" t="s">
@@ -7630,7 +7631,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="39"/>
@@ -7652,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="39"/>
@@ -7664,7 +7665,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="56" t="s">
@@ -7674,7 +7675,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G13" s="58"/>
       <c r="H13" s="39"/>
@@ -7690,14 +7691,14 @@
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E14" s="56">
         <v>7</v>
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="41"/>
@@ -7719,14 +7720,14 @@
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H15" s="43"/>
       <c r="I15" s="45"/>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A17" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
@@ -7739,15 +7740,15 @@
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A18" s="62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="31"/>
       <c r="D18" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="63" t="s">
         <v>198</v>
-      </c>
-      <c r="E18" s="63" t="s">
-        <v>199</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
@@ -7793,22 +7794,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41238</v>
@@ -7816,7 +7817,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -7825,23 +7826,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -7852,10 +7853,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -7871,7 +7872,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -7895,7 +7896,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -7911,20 +7912,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>230</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>231</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -7935,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="53" t="s">
@@ -7945,10 +7946,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="37"/>
@@ -7970,7 +7971,7 @@
       </c>
       <c r="F11" s="57"/>
       <c r="G11" s="58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="41"/>
@@ -8001,7 +8002,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="56" t="s">
@@ -8032,7 +8033,7 @@
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="41"/>
@@ -8323,7 +8324,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="56" t="s">
@@ -8343,7 +8344,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="56" t="s">
@@ -8363,7 +8364,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="56" t="s">
@@ -8383,7 +8384,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="56" t="s">
@@ -8403,7 +8404,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="56" t="s">
@@ -8414,7 +8415,7 @@
       </c>
       <c r="F33" s="57"/>
       <c r="G33" s="58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="41"/>
@@ -8429,14 +8430,14 @@
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E34" s="56">
         <v>6</v>
       </c>
       <c r="F34" s="57"/>
       <c r="G34" s="58" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="41"/>
@@ -8447,18 +8448,18 @@
         <v>26</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E35" s="56">
         <v>6</v>
       </c>
       <c r="F35" s="57"/>
       <c r="G35" s="58" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H35" s="39"/>
       <c r="I35" s="41"/>
@@ -8469,7 +8470,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C36" s="40"/>
       <c r="D36" s="56" t="s">
@@ -8480,7 +8481,7 @@
       </c>
       <c r="F36" s="57"/>
       <c r="G36" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H36" s="39"/>
       <c r="I36" s="41"/>
@@ -8502,7 +8503,7 @@
       </c>
       <c r="F37" s="57"/>
       <c r="G37" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="41"/>
@@ -8524,7 +8525,7 @@
       </c>
       <c r="F38" s="57"/>
       <c r="G38" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="41"/>
@@ -8535,7 +8536,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="40"/>
       <c r="D39" s="56" t="s">
@@ -8555,7 +8556,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="56" t="s">
@@ -8575,7 +8576,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" s="40"/>
       <c r="D41" s="56" t="s">
@@ -8595,7 +8596,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C42" s="40"/>
       <c r="D42" s="56" t="s">
@@ -8615,7 +8616,7 @@
         <v>34</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C43" s="40"/>
       <c r="D43" s="56" t="s">
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="41"/>
@@ -8657,11 +8658,11 @@
         <v>36</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C45" s="40"/>
       <c r="D45" s="56" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E45" s="56">
         <v>6</v>
@@ -8688,7 +8689,7 @@
       </c>
       <c r="F46" s="57"/>
       <c r="G46" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H46" s="39"/>
       <c r="I46" s="41"/>
@@ -8710,7 +8711,7 @@
       </c>
       <c r="F47" s="57"/>
       <c r="G47" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="41"/>
@@ -8737,7 +8738,7 @@
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A50" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
@@ -8750,15 +8751,15 @@
     </row>
     <row r="51" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A51" s="62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="31"/>
       <c r="D51" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="63" t="s">
         <v>221</v>
-      </c>
-      <c r="E51" s="63" t="s">
-        <v>222</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
@@ -8804,7 +8805,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -8813,13 +8814,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -8827,7 +8828,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -8836,23 +8837,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -8863,10 +8864,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -8882,7 +8883,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -8906,7 +8907,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -8922,20 +8923,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -8946,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="53" t="s">
@@ -8956,7 +8957,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="35"/>
@@ -8968,7 +8969,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="56" t="s">
@@ -8978,7 +8979,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="39"/>
@@ -8990,7 +8991,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="56" t="s">
@@ -9000,7 +9001,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="39"/>
@@ -9032,7 +9033,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="56" t="s">
@@ -9043,7 +9044,7 @@
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="41"/>
@@ -9054,7 +9055,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="56" t="s">
@@ -9074,7 +9075,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="56" t="s">
@@ -9114,7 +9115,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="56" t="s">
@@ -9125,7 +9126,7 @@
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="58" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="41"/>
@@ -9167,7 +9168,7 @@
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="41"/>
@@ -9189,7 +9190,7 @@
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="41"/>
@@ -9216,7 +9217,7 @@
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A24" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
@@ -9229,15 +9230,15 @@
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A25" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="31"/>
       <c r="D25" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" s="63" t="s">
         <v>213</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>214</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
@@ -9283,7 +9284,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -9292,13 +9293,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -9306,7 +9307,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -9315,23 +9316,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -9342,17 +9343,17 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -9363,11 +9364,11 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -9380,7 +9381,7 @@
       <c r="A6" s="47"/>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -9391,7 +9392,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -9407,20 +9408,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -9441,10 +9442,10 @@
         <v>3</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="37"/>
@@ -9465,7 +9466,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="39"/>
@@ -9488,7 +9489,7 @@
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="41"/>
@@ -9530,7 +9531,7 @@
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="41"/>
@@ -9572,7 +9573,7 @@
       </c>
       <c r="F16" s="57"/>
       <c r="G16" s="58" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="41"/>
@@ -9594,7 +9595,7 @@
       </c>
       <c r="F17" s="57"/>
       <c r="G17" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="41"/>
@@ -9621,7 +9622,7 @@
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A20" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
@@ -9634,15 +9635,15 @@
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A21" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="31"/>
       <c r="D21" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="63" t="s">
         <v>213</v>
-      </c>
-      <c r="E21" s="63" t="s">
-        <v>214</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
@@ -9688,7 +9689,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -9697,13 +9698,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -9711,7 +9712,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -9720,23 +9721,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -9747,10 +9748,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -9766,7 +9767,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -9790,7 +9791,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -9806,20 +9807,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -9830,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="53" t="s">
@@ -9840,7 +9841,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="35"/>
@@ -9852,7 +9853,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="56" t="s">
@@ -9862,7 +9863,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="39"/>
@@ -9874,7 +9875,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="56" t="s">
@@ -9884,7 +9885,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="39"/>
@@ -9896,18 +9897,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="56" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E13" s="56">
         <v>1</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="58" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="41"/>
@@ -9918,7 +9919,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="56" t="s">
@@ -9929,7 +9930,7 @@
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="58" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="41"/>
@@ -9960,7 +9961,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="56" t="s">
@@ -9971,7 +9972,7 @@
       </c>
       <c r="F16" s="57"/>
       <c r="G16" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="41"/>
@@ -9986,14 +9987,14 @@
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="56" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E17" s="56">
         <v>1</v>
       </c>
       <c r="F17" s="57"/>
       <c r="G17" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="41"/>
@@ -10015,7 +10016,7 @@
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="41"/>
@@ -10042,7 +10043,7 @@
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A21" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
@@ -10055,15 +10056,15 @@
     </row>
     <row r="22" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A22" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="31"/>
       <c r="D22" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="63" t="s">
         <v>213</v>
-      </c>
-      <c r="E22" s="63" t="s">
-        <v>214</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
@@ -10109,22 +10110,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -10132,7 +10133,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -10141,23 +10142,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -10168,10 +10169,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -10187,7 +10188,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -10211,7 +10212,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -10227,20 +10228,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -10251,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="53" t="s">
@@ -10261,7 +10262,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="35"/>
@@ -10273,7 +10274,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="56" t="s">
@@ -10283,10 +10284,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="41"/>
@@ -10307,7 +10308,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="39"/>
@@ -10319,7 +10320,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="56" t="s">
@@ -10339,7 +10340,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="59" t="s">
@@ -10355,7 +10356,7 @@
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A16" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
@@ -10368,15 +10369,15 @@
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A17" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
       <c r="D17" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="63" t="s">
         <v>217</v>
-      </c>
-      <c r="E17" s="63" t="s">
-        <v>218</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
@@ -10422,7 +10423,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -10431,13 +10432,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -10445,7 +10446,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -10454,23 +10455,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -10481,10 +10482,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -10500,7 +10501,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -10524,7 +10525,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -10540,20 +10541,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -10564,7 +10565,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="53" t="s">
@@ -10574,7 +10575,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="35"/>
@@ -10596,7 +10597,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="39"/>
@@ -10608,7 +10609,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="56" t="s">
@@ -10619,7 +10620,7 @@
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="41"/>
@@ -10630,7 +10631,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="56" t="s">
@@ -10641,7 +10642,7 @@
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="41"/>
@@ -10652,7 +10653,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="56" t="s">
@@ -10683,7 +10684,7 @@
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="41"/>
@@ -10710,7 +10711,7 @@
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A18" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
@@ -10723,15 +10724,15 @@
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A19" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
       <c r="D19" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="63" t="s">
         <v>217</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>218</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
@@ -10777,7 +10778,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -10786,13 +10787,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41238</v>
@@ -10800,7 +10801,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -10809,19 +10810,19 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
@@ -10834,10 +10835,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -10853,11 +10854,11 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -10879,7 +10880,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -10895,20 +10896,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -10929,7 +10930,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="35"/>
@@ -11201,7 +11202,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="56" t="s">
@@ -11221,7 +11222,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="56" t="s">
@@ -11241,7 +11242,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="56" t="s">
@@ -11261,7 +11262,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="56" t="s">
@@ -11272,7 +11273,7 @@
       </c>
       <c r="F27" s="57"/>
       <c r="G27" s="58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="41"/>
@@ -11283,7 +11284,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="56" t="s">
@@ -11303,7 +11304,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="56" t="s">
@@ -11314,7 +11315,7 @@
       </c>
       <c r="F29" s="57"/>
       <c r="G29" s="58" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="41"/>
@@ -11325,7 +11326,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="56" t="s">
@@ -11336,7 +11337,7 @@
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="58" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="41"/>
@@ -11383,7 +11384,7 @@
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A34" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
@@ -11396,15 +11397,15 @@
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A35" s="62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="31"/>
       <c r="D35" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" s="63" t="s">
         <v>221</v>
-      </c>
-      <c r="E35" s="63" t="s">
-        <v>222</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
@@ -11450,22 +11451,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -11473,7 +11474,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -11482,19 +11483,19 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
@@ -11507,10 +11508,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -11526,7 +11527,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -11550,7 +11551,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -11566,20 +11567,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -11600,7 +11601,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="35"/>
@@ -11612,7 +11613,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="56" t="s">
@@ -11632,7 +11633,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="59" t="s">
@@ -11648,7 +11649,7 @@
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A14" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
@@ -11661,15 +11662,15 @@
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A15" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31"/>
       <c r="D15" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
@@ -11715,22 +11716,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41238</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41238</v>
@@ -11738,7 +11739,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -11747,19 +11748,19 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
@@ -11772,10 +11773,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>387</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -11791,7 +11792,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -11815,7 +11816,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -11831,20 +11832,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E9" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="F9" s="50" t="s">
         <v>391</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="G9" s="51" t="s">
         <v>392</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>393</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -11854,20 +11855,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="53" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E10" s="53">
         <v>10</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="37"/>
@@ -11877,7 +11878,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="59" t="s">
@@ -11893,7 +11894,7 @@
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A13" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
@@ -11906,15 +11907,15 @@
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A14" s="62" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="50" t="s">
+        <v>396</v>
+      </c>
+      <c r="E14" s="63" t="s">
         <v>397</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>398</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
@@ -11960,22 +11961,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41243</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41243</v>
@@ -11983,7 +11984,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -11992,19 +11993,19 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
@@ -12017,10 +12018,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -12036,7 +12037,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -12060,7 +12061,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -12076,20 +12077,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="50" t="s">
-        <v>193</v>
-      </c>
       <c r="F9" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -12109,10 +12110,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="37"/>
@@ -12122,7 +12123,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="56" t="s">
@@ -12141,11 +12142,11 @@
         <v>3</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="59" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E12" s="59">
         <v>65535</v>
@@ -12157,7 +12158,7 @@
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A14" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
@@ -12170,15 +12171,15 @@
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A15" s="62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="31"/>
       <c r="D15" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="63" t="s">
         <v>198</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>199</v>
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="30"/>
@@ -12224,7 +12225,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -12233,13 +12234,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -12247,7 +12248,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -12256,23 +12257,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -12283,10 +12284,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -12302,7 +12303,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -12326,7 +12327,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -12342,20 +12343,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -12376,10 +12377,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="37"/>
@@ -12390,7 +12391,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="56" t="s">
@@ -12400,7 +12401,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="39"/>
@@ -12422,7 +12423,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="39"/>
@@ -12438,14 +12439,14 @@
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E13" s="56">
         <v>6</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="41"/>
@@ -12467,14 +12468,14 @@
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H14" s="43"/>
       <c r="I14" s="45"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A16" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
@@ -12487,15 +12488,15 @@
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A17" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
       <c r="D17" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="63" t="s">
         <v>217</v>
-      </c>
-      <c r="E17" s="63" t="s">
-        <v>218</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
@@ -12541,7 +12542,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -12550,13 +12551,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -12564,7 +12565,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -12573,23 +12574,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -12600,10 +12601,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -12619,7 +12620,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -12643,7 +12644,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -12659,20 +12660,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -12683,7 +12684,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="53" t="s">
@@ -12693,10 +12694,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="37"/>
@@ -12707,7 +12708,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="56" t="s">
@@ -12717,10 +12718,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="41"/>
@@ -12922,7 +12923,7 @@
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="41"/>
@@ -12944,7 +12945,7 @@
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="41"/>
@@ -12971,7 +12972,7 @@
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A25" s="48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
@@ -12984,15 +12985,15 @@
     </row>
     <row r="26" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A26" s="62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="31"/>
       <c r="D26" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="63" t="s">
         <v>213</v>
-      </c>
-      <c r="E26" s="63" t="s">
-        <v>214</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
@@ -13038,7 +13039,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -13047,13 +13048,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -13061,7 +13062,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -13070,23 +13071,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -13097,10 +13098,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -13116,7 +13117,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -13140,7 +13141,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -13156,20 +13157,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -13190,10 +13191,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="37"/>
@@ -13224,7 +13225,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="56" t="s">
@@ -13235,7 +13236,7 @@
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="41"/>
@@ -13526,7 +13527,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="56" t="s">
@@ -13537,7 +13538,7 @@
       </c>
       <c r="F27" s="57"/>
       <c r="G27" s="58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="41"/>
@@ -13552,14 +13553,14 @@
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E28" s="56">
         <v>6</v>
       </c>
       <c r="F28" s="57"/>
       <c r="G28" s="58" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="41"/>
@@ -13590,11 +13591,11 @@
         <v>21</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="56" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E30" s="56">
         <v>6</v>
@@ -13621,7 +13622,7 @@
       </c>
       <c r="F31" s="57"/>
       <c r="G31" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="41"/>
@@ -13643,7 +13644,7 @@
       </c>
       <c r="F32" s="57"/>
       <c r="G32" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="41"/>
@@ -13670,7 +13671,7 @@
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A35" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
@@ -13683,15 +13684,15 @@
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A36" s="62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
       <c r="D36" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="63" t="s">
         <v>221</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>222</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
@@ -13737,7 +13738,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -13746,13 +13747,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -13760,7 +13761,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -13769,23 +13770,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -13796,10 +13797,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -13815,7 +13816,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -13839,7 +13840,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -13855,20 +13856,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -13879,7 +13880,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="53" t="s">
@@ -13889,7 +13890,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="35"/>
@@ -13901,7 +13902,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="56" t="s">
@@ -13911,10 +13912,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="58" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="41"/>
@@ -13935,7 +13936,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="39"/>
@@ -13947,7 +13948,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="56" t="s">
@@ -13967,7 +13968,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="59" t="s">
@@ -13983,7 +13984,7 @@
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A16" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
@@ -13996,15 +13997,15 @@
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A17" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
       <c r="D17" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="63" t="s">
         <v>217</v>
-      </c>
-      <c r="E17" s="63" t="s">
-        <v>218</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
@@ -14050,7 +14051,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -14059,13 +14060,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -14073,7 +14074,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -14082,23 +14083,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -14109,10 +14110,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -14128,7 +14129,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -14152,7 +14153,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -14168,20 +14169,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -14202,7 +14203,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="35"/>
@@ -14258,14 +14259,14 @@
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E13" s="56">
         <v>6</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="41"/>
@@ -14287,7 +14288,7 @@
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="41"/>
@@ -14309,7 +14310,7 @@
       </c>
       <c r="F15" s="57"/>
       <c r="G15" s="58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="41"/>
@@ -14371,7 +14372,7 @@
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="41"/>
@@ -14413,7 +14414,7 @@
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="41"/>
@@ -14440,7 +14441,7 @@
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A23" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
@@ -14453,15 +14454,15 @@
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A24" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="31"/>
       <c r="D24" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="63" t="s">
         <v>217</v>
-      </c>
-      <c r="E24" s="63" t="s">
-        <v>218</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
@@ -14507,7 +14508,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -14516,13 +14517,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -14530,7 +14531,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -14539,23 +14540,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -14566,10 +14567,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -14585,7 +14586,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -14609,7 +14610,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -14625,20 +14626,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>210</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -14659,7 +14660,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="35"/>
@@ -14682,7 +14683,7 @@
       </c>
       <c r="F11" s="57"/>
       <c r="G11" s="58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="41"/>
@@ -14724,14 +14725,14 @@
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="61" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H13" s="43"/>
       <c r="I13" s="45"/>
     </row>
     <row r="15" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A15" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
@@ -14744,15 +14745,15 @@
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A16" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
       <c r="D16" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="63" t="s">
         <v>217</v>
-      </c>
-      <c r="E16" s="63" t="s">
-        <v>218</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
@@ -14798,7 +14799,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -14807,13 +14808,13 @@
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6">
         <v>41227</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I1" s="7">
         <v>41227</v>
@@ -14821,7 +14822,7 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -14830,23 +14831,23 @@
       <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="10"/>
@@ -14857,10 +14858,10 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
@@ -14876,7 +14877,7 @@
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
@@ -14900,7 +14901,7 @@
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -14916,20 +14917,20 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="F9" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>193</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>194</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="52"/>
@@ -14950,10 +14951,10 @@
         <v>10</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="37"/>
@@ -14974,7 +14975,7 @@
         <v>256</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G11" s="58"/>
       <c r="H11" s="39"/>
@@ -14996,7 +14997,7 @@
         <v>128</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="39"/>
@@ -15008,7 +15009,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="56" t="s">
@@ -15018,7 +15019,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G13" s="58"/>
       <c r="H13" s="39"/>
@@ -15370,7 +15371,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>86</v>
+        <v>420</v>
       </c>
       <c r="C31" s="40"/>
       <c r="D31" s="56" t="s">
@@ -15390,11 +15391,11 @@
         <v>23</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32" s="56">
         <v>4</v>
@@ -15430,7 +15431,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C34" s="40"/>
       <c r="D34" s="56" t="s">
@@ -15441,7 +15442,7 @@
       </c>
       <c r="F34" s="57"/>
       <c r="G34" s="58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="41"/>
@@ -15452,11 +15453,11 @@
         <v>26</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="56" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E35" s="56">
         <v>6</v>
@@ -15483,7 +15484,7 @@
       </c>
       <c r="F36" s="57"/>
       <c r="G36" s="58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H36" s="39"/>
       <c r="I36" s="41"/>
@@ -15505,7 +15506,7 @@
       </c>
       <c r="F37" s="57"/>
       <c r="G37" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="41"/>
@@ -15532,7 +15533,7 @@
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A40" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
@@ -15545,15 +15546,15 @@
     </row>
     <row r="41" spans="1:9" ht="12.75" customHeight="1" thickBot="1">
       <c r="A41" s="62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B41" s="30"/>
       <c r="C41" s="31"/>
       <c r="D41" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="63" t="s">
         <v>198</v>
-      </c>
-      <c r="E41" s="63" t="s">
-        <v>199</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
